--- a/market_data/fx_swap_data.xlsx
+++ b/market_data/fx_swap_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\QuantLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project_FICC_Quant\market_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6E493-7E1F-45A5-91D1-220C04555EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
+    <workbookView xWindow="5160" yWindow="-18330" windowWidth="18720" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USDIRS" sheetId="1" r:id="rId1"/>
@@ -186,24 +187,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -235,13 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -249,7 +250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,25 +810,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -841,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -855,7 +856,7 @@
         <v>0.22538</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -869,7 +870,7 @@
         <v>99.724999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -883,7 +884,7 @@
         <v>99.784999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -897,7 +898,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -911,7 +912,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -925,7 +926,7 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -939,7 +940,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -956,7 +957,7 @@
       <c r="F9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -973,7 +974,7 @@
       <c r="F10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="F11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1008,7 @@
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1025,7 @@
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1042,7 @@
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1059,7 @@
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1076,7 @@
       <c r="F16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1092,7 +1093,7 @@
       <c r="F17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1127,7 @@
       <c r="F19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1144,7 @@
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1161,7 @@
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1178,7 @@
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1195,7 @@
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1212,7 @@
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1243,14 +1244,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
